--- a/Rokomari_TestCase.xlsx
+++ b/Rokomari_TestCase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fariha/Desktop/DESKTOP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fariha/Desktop/GitRep/SQA_Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23316F84-2FEC-C642-AA2F-E4A7E23AC196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C116C54-54D2-0C45-AC1A-A2F24FF0454F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,12 +246,6 @@
     <t>Pre Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Must be Small letter without space.
-2.Between @ and dot (.) there must be a valid Email Providers
-3.There must be a valid domain after dot.
-</t>
-  </si>
-  <si>
     <t>1.Must be Small letter without space.
 2.Between @ and dot (.) there must be a valid Email Providers
 3.There must be a valid domain after dot.</t>
@@ -261,6 +255,12 @@
 2.Click on Sign Up Option
 3.Enter The Valid Email
 4.Click On The Sign In Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Must be Small letter without space.
+2.Between @ and dot (.) there must be a valid Email Providers
+3.There must be a valid domain after dot. 
+</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -892,13 +892,13 @@
         <v>52</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
@@ -917,7 +917,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>34</v>
@@ -944,7 +944,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>36</v>
@@ -970,7 +970,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>38</v>
@@ -993,7 +993,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>40</v>
@@ -1014,7 +1014,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>42</v>
@@ -1037,7 +1037,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>44</v>

--- a/Rokomari_TestCase.xlsx
+++ b/Rokomari_TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fariha/Desktop/GitRep/SQA_Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C116C54-54D2-0C45-AC1A-A2F24FF0454F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C909383-54C1-C54D-B446-7922E31D927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>Product Name</t>
   </si>
@@ -148,38 +148,18 @@
     <t>Check valid Email Field</t>
   </si>
   <si>
-    <t>1. farihamessi10@gmail.com
-2. messi.10/</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Login Test
 Invalid Email Field Valid Password</t>
   </si>
   <si>
-    <t>1. messi10@gmail.com
-2. Messi.10/</t>
-  </si>
-  <si>
     <t>Should not show the
  Homepage</t>
   </si>
   <si>
-    <t>1. farihamessi10@gmail.com
-2. Blank Password</t>
-  </si>
-  <si>
     <t>valid Email Field Blank Password</t>
   </si>
   <si>
-    <t>1. Blank Email
-2. Messi.10/</t>
-  </si>
-  <si>
     <t>Blank Email Valid Password</t>
-  </si>
-  <si>
-    <t>1. messi10@gmail.com
-2. messi.10/</t>
   </si>
   <si>
     <t>Invalid Email Field and 
@@ -203,41 +183,10 @@
     <t xml:space="preserve">User Access Denied </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1. farihamessi10@gmail.com</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2. Messi.10/</t>
-    </r>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
     <t>Rokomari</t>
-  </si>
-  <si>
-    <t>Check the valid Email field</t>
   </si>
   <si>
     <t>Test Case Description</t>
@@ -249,25 +198,48 @@
     <t>1.Must be Small letter without space.
 2.Between @ and dot (.) there must be a valid Email Providers
 3.There must be a valid domain after dot.</t>
-  </si>
-  <si>
-    <t>1. Open The url "https://www.rokomari.com/login"
-2.Click on Sign Up Option
-3.Enter The Valid Email
-4.Click On The Sign In Button</t>
   </si>
   <si>
     <t xml:space="preserve">1.Must be Small letter without space.
 2.Between @ and dot (.) there must be a valid Email Providers
 3.There must be a valid domain after dot. 
 </t>
+  </si>
+  <si>
+    <t>Registration without name</t>
+  </si>
+  <si>
+    <t>1. Open The url "https://www.rokomari.com/login"
+2. Mouse hover login button
+3.Click on Sign Up Option
+3.Enter The Valid Email
+4.Click On The Sign In Button</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>1. Blank Email
+2. password#78+$</t>
+  </si>
+  <si>
+    <t>1. email10@gmail.com
+2. password#78+$</t>
+  </si>
+  <si>
+    <t>1. email10@gmail.com
+2. Password#78+$</t>
+  </si>
+  <si>
+    <t>1. email10@gmail.com
+2. Blank Password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,12 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
@@ -465,13 +431,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,6 +460,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -788,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -798,7 +764,7 @@
     <col min="2" max="2" width="30.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" style="30" customWidth="1"/>
     <col min="6" max="6" width="28.1640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="30.83203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="27.1640625" style="19" customWidth="1"/>
@@ -809,11 +775,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -823,7 +789,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -834,7 +800,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -845,7 +811,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -856,19 +822,19 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -889,22 +855,22 @@
         <v>17</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>56</v>
+      <c r="E7" s="32" t="s">
+        <v>51</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="9"/>
@@ -917,21 +883,21 @@
         <v>33</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="32" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="10"/>
@@ -941,24 +907,24 @@
         <v>22</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="G9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -967,21 +933,21 @@
         <v>23</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -990,42 +956,42 @@
         <v>24</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1034,22 +1000,22 @@
         <v>26</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">

--- a/Rokomari_TestCase.xlsx
+++ b/Rokomari_TestCase.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fariha/Desktop/GitRep/SQA_Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C909383-54C1-C54D-B446-7922E31D927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710D077B-8F2A-DD45-9D90-DD52BE2FD9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="2620" windowWidth="28800" windowHeight="15640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Web" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="123">
   <si>
     <t>Product Name</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>TC001</t>
   </si>
   <si>
@@ -107,83 +104,6 @@
   </si>
   <si>
     <t>TC007</t>
-  </si>
-  <si>
-    <t>1. Open The link  "https://9h.fit/OTV2dG"
-2.Enter The Valid Email
-3.Enter The Invalid Password
-4.Click On The Sign In Button</t>
-  </si>
-  <si>
-    <t>1. Open The link  "https://9h.fit/OTV2dG"
-2.Enter The Invalid Email
-3.Enter The Valid Password
-4.Click On The Sign In Button</t>
-  </si>
-  <si>
-    <t>1. Open The link  "https://9h.fit/OTV2dG"
-2.Enter The Valid Email
-3.Enter The Blank
-4.Click On The Sign In Button</t>
-  </si>
-  <si>
-    <t>1. Open The link  "https://9h.fit/OTV2dG"
-2.Enter The Blank Email
-3.Enter The Valid Password
-4.Click On The Sign In Button</t>
-  </si>
-  <si>
-    <t>1. Open The link  "https://9h.fit/OTV2dG"
-2.Enter The Invalid Email
-3.Enter The Invalid Password
-4.Click On The Sign In Button</t>
-  </si>
-  <si>
-    <t>1. Open The link  "https://9h.fit/OTV2dG"
-2.Enter The Blank Email
-3.Enter The Blank Password
-4.Click On The Sign In Button</t>
-  </si>
-  <si>
-    <t>Check valid Email Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Login Test
-Invalid Email Field Valid Password</t>
-  </si>
-  <si>
-    <t>Should not show the
- Homepage</t>
-  </si>
-  <si>
-    <t>valid Email Field Blank Password</t>
-  </si>
-  <si>
-    <t>Blank Email Valid Password</t>
-  </si>
-  <si>
-    <t>Invalid Email Field and 
-Invalid Password</t>
-  </si>
-  <si>
-    <t>1. Blank Email
-2. Blank Password</t>
-  </si>
-  <si>
-    <t>Blank Email Blank Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successfully login the page </t>
-  </si>
-  <si>
-    <t>Should not POp Up 
-The Browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Access Denied </t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>Rokomari</t>
@@ -200,46 +120,454 @@
 3.There must be a valid domain after dot.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Must be Small letter without space.
-2.Between @ and dot (.) there must be a valid Email Providers
-3.There must be a valid domain after dot. 
-</t>
-  </si>
-  <si>
     <t>Registration without name</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Registration with invalid name</t>
+  </si>
+  <si>
+    <t>Registration with valid name</t>
+  </si>
+  <si>
+    <t>Registration without any email address</t>
+  </si>
+  <si>
+    <t>Resgistration with invalid email address</t>
+  </si>
+  <si>
+    <t>Registration with valid email address</t>
+  </si>
+  <si>
+    <t>Sign up without any phone number</t>
+  </si>
+  <si>
+    <t>Sign up with valid phone number</t>
+  </si>
+  <si>
+    <t>Sign up with invalid phone number</t>
+  </si>
+  <si>
+    <t>Sign up without any password</t>
+  </si>
+  <si>
+    <t>Sign Up with invalid password</t>
+  </si>
+  <si>
+    <t>Sign Up with valid password</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>1.Only alphabets are allowed.
+2.Should be Meaningful</t>
+  </si>
+  <si>
+    <t>1. Must be numeric value 
+2. 11 digit</t>
   </si>
   <si>
     <t>1. Open The url "https://www.rokomari.com/login"
 2. Mouse hover login button
 3.Click on Sign Up Option
-3.Enter The Valid Email
-4.Click On The Sign In Button</t>
-  </si>
-  <si>
-    <t>Blank</t>
-  </si>
-  <si>
-    <t>1. Blank Email
-2. password#78+$</t>
-  </si>
-  <si>
-    <t>1. email10@gmail.com
-2. password#78+$</t>
-  </si>
-  <si>
-    <t>1. email10@gmail.com
-2. Password#78+$</t>
-  </si>
-  <si>
-    <t>1. email10@gmail.com
-2. Blank Password</t>
+4.Enter Name Using Blank
+5.Click On The Sign In Button</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Fariha Tasnim</t>
+  </si>
+  <si>
+    <t>Sabiul Islam</t>
+  </si>
+  <si>
+    <t>1.Must be contains at least 8 character using a mix of upper-case and lower-case.
+2.Must be contains at least 1 numeric value 
+3.Must be contains at least 1 special symbol.</t>
+  </si>
+  <si>
+    <t>Should not be able to signup with 
+blank full name and get a popup message 
+"This field is required!"</t>
+  </si>
+  <si>
+    <t>1.Email: xbox012310@gmail.com
+2.Mobile: 01644044708
+3.Password: 999945sft@#</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Unable to signUp and the popup 
+message "Missing requied Property"</t>
+  </si>
+  <si>
+    <t>field required</t>
+  </si>
+  <si>
+    <t>invalid required</t>
+  </si>
+  <si>
+    <t>Should not be able to SignUp with invalid name</t>
+  </si>
+  <si>
+    <t>Should be able to SignUp with full name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Able to sign Up successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">able to Sign Up successfully </t>
+  </si>
+  <si>
+    <t>No alert for invalid Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should not be able to SignUp 
+without Email Address
+</t>
+  </si>
+  <si>
+    <t>Unable to signUp without any email address.</t>
+  </si>
+  <si>
+    <t>successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should not be able to SignUp 
+with invalid Email Address
+</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Unable to signUp and the popup 
+message "Email format is not correct!"</t>
+  </si>
+  <si>
+    <t>Email format is not correct!</t>
+  </si>
+  <si>
+    <t>1.Name: 766767657
+2.Email: xbox012310@gmail.com
+3.Mobile: 01644044708
+4.Password: 999945sft@#</t>
+  </si>
+  <si>
+    <t>Should be able to SignUp 
+with valid email address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should not be able to SignUp 
+with blank phone number
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to Sign Up successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should not be able to SignUp 
+with invalid phone number
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to Sign Up </t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>invalid phone umber</t>
+  </si>
+  <si>
+    <t>1. Must be numeric value 
+2. Should be 11 digit
+3. Must be choose country code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be able to SignUp 
+with blank phone number
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign up Successfully </t>
+  </si>
+  <si>
+    <t>1.Name: Fariha tasnim
+2.Email:  abcghhhh@gmail.com
+3.Mobile: 01637887689
+4. password:Password#78+$</t>
+  </si>
+  <si>
+    <t>1.Name: Fariha tasnim
+2.Email:  abcghhhh@gmail.com
+3.Mobile: 12345678897
+4. Password: Password#78+$</t>
+  </si>
+  <si>
+    <t>1.Name: Fariha tasnim
+2.Email:  abcghhhh@gmail.com
+3.Mobile: blank
+4. Password: Password#78+$</t>
+  </si>
+  <si>
+    <t>1.Name: Fariha tasnim
+2.Email:  abcghhhh@gmail.com
+3.Mobile: 01644044708
+4. Password: Password#78+$</t>
+  </si>
+  <si>
+    <t>1.Name: Fariha tasnim
+2.Email:  abc,@gmail.com
+3.Mobile: 01644044708
+4. Password: Password#78+$</t>
+  </si>
+  <si>
+    <t>1.Name: Fariha tasnim
+2.Email: blank
+3.Mobile: 01644044708
+4. Password: Password#78+$</t>
+  </si>
+  <si>
+    <t>1.Name: Fariha tasnim
+2.Email: xbox012310@gmail.com
+3.Mobile: 01644044708
+4. Password:Password#78+$</t>
+  </si>
+  <si>
+    <t>1.Name: Fariha tasnim
+2.Email:  abcghhhh@gmail.com
+3.Mobile: 01637887689
+4. password: blank</t>
+  </si>
+  <si>
+    <t>1. Open The url "https://www.rokomari.com/login"
+2. Mouse hover login button
+3.Click on Sign Up Option
+4.Enter Invalid Name
+5.Enter valid email
+6.Enter valid phone number
+7.Enter valid Password
+8.Verify recaptcha
+9.Click to 'Create Account' button</t>
+  </si>
+  <si>
+    <t>1. Open The url "https://www.rokomari.com/login"
+2. Mouse hover login button
+3.Click on Sign Up Option
+4.Enter Invalid Name
+5.Enter valid email
+6.Enter invalid phone number
+7.Enter valid Password
+8.Verify recaptcha
+9.Click to 'Create Account' button</t>
+  </si>
+  <si>
+    <t>1. Open The url "https://www.rokomari.com/login"
+2. Mouse hover login button
+3.Click on Sign Up Option
+4.Enter Invalid Name
+5.Enter valid email
+6.Enter blank in the phone number field
+7.Enter valid Password
+8.Verify recaptcha
+9.Click to 'Create Account' button</t>
+  </si>
+  <si>
+    <t>1. Open The url "https://www.rokomari.com/login"
+2. Mouse hover login button
+3.Click on Sign Up Option
+4.Enter Invalid Name
+5.Enter valid email
+6.Enter valid Mobile no.
+7.Enter valid Password
+8.Verify recaptcha
+9.Click to 'Create Account' button</t>
+  </si>
+  <si>
+    <t>1. Open The url "https://www.rokomari.com/login"
+2. Mouse hover login button
+3.Click on Sign Up Option
+4.Enter Invalid Name
+5.Enter invalid email
+6.Enter valid Mobile no.
+7.Enter valid Password
+8.Verify recaptcha
+9.Click to 'Create Account' button</t>
+  </si>
+  <si>
+    <t>1. Open The url "https://www.rokomari.com/login"
+2. Mouse hover login button
+3.Click on Sign Up Option
+4.Enter Invalid Name
+5.Enter blank
+6.Enter valid Mobile no.
+7.Enter valid Password
+8.Verify recaptcha
+9.Click to 'Create Account' button</t>
+  </si>
+  <si>
+    <t>1. Open The url "https://www.rokomari.com/login"
+2. Mouse hover login button
+3.Click on Sign Up Option
+4.Enter valid Name
+5.Enter valid email
+6.Enter valid Mobile no.
+7.Enter valid Password
+8.Verify recaptcha
+9.Click to 'Create Account' button</t>
+  </si>
+  <si>
+    <t>1. Open The url "https://www.rokomari.com/login"
+2. Mouse hover login button
+3.Click on Sign Up Option
+4.Enter Name Using Blank
+5.Enter valid email
+6.Enter valid Mobile no.
+7.Enter valid Password
+8.Verify recaptcha
+9.Click to 'Create Account' button</t>
+  </si>
+  <si>
+    <t>1. Open The url "https://www.rokomari.com/login"
+2. Mouse hover login button
+3.Click on Sign Up Option
+4.Enter Invalid Name
+5.Enter valid email
+6.Enter valid phone number
+7.Keep blank in password field
+8.Verify recaptcha
+9.Click to 'Create Account' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should not be able to SignUp 
+with blank password
+</t>
+  </si>
+  <si>
+    <t>1.Name: Fariha tasnim
+2.Email:  abcghhhh@gmail.com
+3.Mobile: 01637887689
+4. password: 777777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should not be able to SignUp 
+with invalid password
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be able to SignUp 
+with valid password
+</t>
+  </si>
+  <si>
+    <t>At least 8 characters!</t>
+  </si>
+  <si>
+    <t>Verify full name</t>
+  </si>
+  <si>
+    <t>1. Open The url "https://www.rokomari.com/login"
+2. Mouse hover login button
+3.Click on Sign Up Option
+4.Fillup the full name with number and alphabet
+5.Enter valid email
+6.Enter invalid phone number
+7.Enter valid Password
+8.Verify recaptcha
+9.Click to 'Create Accout' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be warned about mixing number and alphabet
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SignUp successfully </t>
+  </si>
+  <si>
+    <t>1.Name: 9ariha tasnim
+2.Email:  abcghhhh@gmail.com
+3.Mobile: 01637887689
+4. Password#78+$</t>
+  </si>
+  <si>
+    <t>Should be unsuccessful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be warned about special characters
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shouldbe unsuccessful </t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>Email verification</t>
+  </si>
+  <si>
+    <t>1. Open The url "https://www.rokomari.com/login"
+2. Mouse hover login button
+3.Click on Sign Up Option
+4.Enter Invalid Name
+5.Enter email addrees using space
+6.Enter valid Mobile no.
+7.Enter valid Password
+8.Verify recaptcha
+9.Click to 'Create Account' button</t>
+  </si>
+  <si>
+    <t>1.Name: Fariha tasnim
+2.Email:  abcghhh h@gmail.com
+3.Mobile: 01637887689
+4. Password#78+$</t>
+  </si>
+  <si>
+    <t>1.Name: *ariha tasnim
+2.Email:  abcghhhh@gmail.com
+3.Mobile: 01637887689
+4. Password#78+$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should not be able to SignUp 
+with email address
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign up unsuccessfully </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +602,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +707,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -389,7 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -399,8 +764,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,16 +774,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -428,9 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,8 +815,40 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -473,8 +859,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF17B54C"/>
       <color rgb="FF11D33E"/>
-      <color rgb="FF17B54C"/>
+      <color rgb="FFFFD7D6"/>
+      <color rgb="FFD7ABA9"/>
       <color rgb="FF15BD29"/>
     </mruColors>
   </colors>
@@ -754,367 +1142,1245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="16" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18" style="13" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="32" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="30.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="5" customWidth="1"/>
-    <col min="10" max="11" width="9.1640625" style="5"/>
+    <col min="8" max="8" width="27.1640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="31" style="5" customWidth="1"/>
+    <col min="11" max="11" width="24.83203125" style="5" customWidth="1"/>
     <col min="12" max="12" width="27.5" style="5" customWidth="1"/>
     <col min="13" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="F1" s="35">
+        <v>44778</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="F2" s="35">
+        <v>44780</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="B3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="F3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="B4" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L4" s="28"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
+      <c r="B6" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="D19" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="I19" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H27" s="20"/>
+      <c r="D21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H27" s="16"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="11"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="11"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="12"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D40" s="12"/>
+      <c r="D40" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{03C1F58E-5D13-7E40-8A2F-0F67AB7B574B}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{EFE32414-CCAF-2644-B237-F2B1D5A3799F}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{8718962A-355C-3244-8D06-16EB67CD58F9}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{35E7590C-3F94-F947-9520-61F3C8846F23}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{15311EB2-478C-4043-92C3-B0E6FFBC052C}"/>
+    <hyperlink ref="I12" r:id="rId6" xr:uid="{7CDF5E39-28D7-B443-BFD4-D7A60E581099}"/>
+    <hyperlink ref="I13" r:id="rId7" xr:uid="{FA6BF0FA-85D4-254E-A820-99B15BC2AE43}"/>
+    <hyperlink ref="I14" r:id="rId8" xr:uid="{81DFFDAC-E1F2-A642-95C1-26B6A8C38331}"/>
+    <hyperlink ref="I15" r:id="rId9" xr:uid="{AE96E82C-9D70-154C-BB3A-39749937060C}"/>
+    <hyperlink ref="I16" r:id="rId10" xr:uid="{6E255247-7F8A-594C-AB6C-13B57B4E848E}"/>
+    <hyperlink ref="I17" r:id="rId11" xr:uid="{B83B21C3-59EB-924D-9727-7F7ED6BCE33A}"/>
+    <hyperlink ref="I18" r:id="rId12" xr:uid="{DA04BAE7-3DF7-E145-9028-C7F36EC78A43}"/>
+    <hyperlink ref="I19" r:id="rId13" xr:uid="{5AB03E28-BCF1-A642-9A9B-8FED02B48BD0}"/>
+    <hyperlink ref="I20" r:id="rId14" xr:uid="{2EC2C4C4-61AC-AD42-9776-F44DADD7EE63}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3959C7D-9B63-42FE-8264-2986C29592F6}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D879F61D-B8D0-4947-BC25-6B974E59D110}">
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="5"/>
-    <col min="2" max="2" width="8.6640625" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="18" style="13" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="31" style="5" customWidth="1"/>
+    <col min="11" max="11" width="24.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="27.5" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35">
+        <v>44778</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="35">
+        <v>44780</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="22"/>
+      <c r="B4" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="28"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H27" s="16"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{56A5EB03-9FB2-A545-A792-B930D33058F8}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{7E6A3762-49F2-C847-861D-09754326F82C}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{10CABAE9-D75D-1344-9D94-D436D14C40F7}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{D422828A-14F9-E940-A7BE-E875ED802DC2}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{C10E06DE-CAF0-0842-A2BD-B34AAB620ED0}"/>
+    <hyperlink ref="I12" r:id="rId6" xr:uid="{E699B7D0-7EA5-9547-B954-ED865777B881}"/>
+    <hyperlink ref="I13" r:id="rId7" xr:uid="{D814E19F-B476-6344-8720-05C5A3E51BF1}"/>
+    <hyperlink ref="I14" r:id="rId8" xr:uid="{FC03817B-6BA5-244C-A22A-73E08AC92079}"/>
+    <hyperlink ref="I15" r:id="rId9" xr:uid="{F7A8B0F2-1488-8F4A-9448-8ADEEC9600A8}"/>
+    <hyperlink ref="I16" r:id="rId10" xr:uid="{5CB12CFB-3BBD-FA40-A37A-1CE881FE0E7A}"/>
+    <hyperlink ref="I17" r:id="rId11" xr:uid="{96A5DA56-948B-2B42-925F-73EC9C913E50}"/>
+    <hyperlink ref="I18" r:id="rId12" xr:uid="{BFE15DFF-373A-ED43-8D0A-E3C6B0277F37}"/>
+    <hyperlink ref="I19" r:id="rId13" xr:uid="{57DBFF0A-4864-0048-B542-58874DC53EA8}"/>
+    <hyperlink ref="I20" r:id="rId14" xr:uid="{5510E8BC-E341-5948-9F8D-0735DD6B2E2A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>